--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1A2EC-F879-4046-826E-1EE147E4B7D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737F1A9-E7D5-44C3-A514-1CF74715FF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="3885" windowWidth="21600" windowHeight="11250" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -70,16 +70,42 @@
   </si>
   <si>
     <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3614450</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/ftp/arxiv/papers/0804/0804.0650.pdf</t>
+  </si>
+  <si>
+    <t>random forest unbalanced data</t>
+  </si>
+  <si>
+    <t>Autoauktionen</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/978-3-658-07887-4.pdf</t>
+  </si>
+  <si>
+    <t>crisp dm framework</t>
+  </si>
+  <si>
+    <t>http://www.cs.unibo.it/~danilo.montesi/CBD/Beatriz/10.1.1.198.5133.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,14 +128,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063F7F0-D9D7-4AF4-8A73-A83D43860DEE}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,11 +544,65 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737F1A9-E7D5-44C3-A514-1CF74715FF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E9B9-F58B-4B1A-BA0B-8CE4FA0708F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>http://www.cs.unibo.it/~danilo.montesi/CBD/Beatriz/10.1.1.198.5133.pdf</t>
+  </si>
+  <si>
+    <t>https://www.autoauctionmall.com/learning-center/what-does-mmr-mean/#:~:text=MMR%20in%20the%20car%20business,an%20indicator%20of%20wholesale%20prices.</t>
+  </si>
+  <si>
+    <t>MMR car price</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063F7F0-D9D7-4AF4-8A73-A83D43860DEE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +605,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>

--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E9B9-F58B-4B1A-BA0B-8CE4FA0708F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78813BA-2330-4735-9820-DB6C6718C07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>MMR car price</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>https://publish.manheim.com/en/help/mmr/mmr-under-the-hood.html</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063F7F0-D9D7-4AF4-8A73-A83D43860DEE}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -613,18 +619,36 @@
         <v>44201</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{0BBE904C-E281-4443-BC72-6515C95D5EBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78813BA-2330-4735-9820-DB6C6718C07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682611B4-9D88-4C5F-B309-503B9B193E45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>https://publish.manheim.com/en/help/mmr/mmr-under-the-hood.html</t>
+  </si>
+  <si>
+    <t>lemon market asymmetric information</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-1-4419-6108-2_11</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063F7F0-D9D7-4AF4-8A73-A83D43860DEE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +651,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>

--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682611B4-9D88-4C5F-B309-503B9B193E45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003C3C-EEBD-496D-B270-14149AC9774D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>https://link.springer.com/chapter/10.1007/978-1-4419-6108-2_11</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/pdf/10.1300/J130v05n01_02?needAccess=true</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/1810022?casa_token=fVot-7ZHzHcAAAAA%3Av2RSbb-ydlHNPCWKqzpiBi9xDE178SO7x0r4brwKhlxBz2zwLNIGy6Bt1_fgrVdHRIFyyCL2CuirNEXWp7DOod2eiFDAqER6BDBPUiKnEFRxzA9vcPNR&amp;seq=1#metadata_info_tab_contents</t>
+  </si>
+  <si>
+    <t>lemon car market</t>
+  </si>
+  <si>
+    <t>George akerlof the market for lemons</t>
+  </si>
+  <si>
+    <t>https://www.williamdavid.me.uk/wp-content/uploads/2017/04/The-Market-for-Lemons-text-full.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/pdf/1879431.pdf?refreqid=excelsior%3A1ff10c03269b5441b7568b90db57b572</t>
   </si>
 </sst>
 </file>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063F7F0-D9D7-4AF4-8A73-A83D43860DEE}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +686,74 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>

--- a/Literatur/Literatur.xlsx
+++ b/Literatur/Literatur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvoss\Google Drive\Uni_5_Semester\Studienarbeit\Literatur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47003C3C-EEBD-496D-B270-14149AC9774D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B927E-E4CA-42EE-B545-7D6DC0C42EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93F13C59-232E-4490-8F5D-B71E96A97077}"/>
   </bookViews>
@@ -147,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,10 +174,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -490,7 +498,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,224 +524,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>44188</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>44188</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>44188</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>44188</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>44194</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>44194</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>44194</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>44201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>44202</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>44209</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>44231</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>44231</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>44231</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -758,6 +766,11 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{D18F6FD0-0932-4D80-B7D1-78AAF16F5B9A}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{0BBE904C-E281-4443-BC72-6515C95D5EBB}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{FA387AE8-8A18-4FF0-937E-238C66EF0D5B}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{2161A307-4D0C-41CC-83CF-92054DE12EE4}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{54234CD1-78A5-49C3-94A5-B005680312A1}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{23319C37-6FDD-4714-84BE-72D7E613CAD3}"/>
+    <hyperlink ref="E13" r:id="rId7" location="metadata_info_tab_contents" xr:uid="{D2424834-AFBC-4D1B-A497-A0401940F181}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
